--- a/biology/Zoologie/Dipsas_articulata/Dipsas_articulata.xlsx
+++ b/biology/Zoologie/Dipsas_articulata/Dipsas_articulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsas articulata  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsas articulata  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Nicaragua, au Costa Rica et au Panama[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Nicaragua, au Costa Rica et au Panama.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1868 : An examination of the Reptilia and Batrachia obtained by the Orton Expedition to Equador and the Upper Amazon, with notes on other species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 96-140 (texte intégral).</t>
         </is>
